--- a/ProbEstat_aula06.xlsx
+++ b/ProbEstat_aula06.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1002250719\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4B1ADB-EAB5-44CE-B90D-9A0AB8569707}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDE5C1F-6D89-4777-874B-630787BF562D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{66CC6CE9-CDED-4742-9A6E-F83F8C7C4C3E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="6" xr2:uid="{66CC6CE9-CDED-4742-9A6E-F83F8C7C4C3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Carreiras_1" sheetId="1" r:id="rId1"/>
     <sheet name="Carreiras_2" sheetId="2" r:id="rId2"/>
-    <sheet name="Embalagem" sheetId="3" r:id="rId3"/>
-    <sheet name="Calculo de F" sheetId="4" r:id="rId4"/>
-    <sheet name="Scrap" sheetId="7" r:id="rId5"/>
-    <sheet name="2FATORES" sheetId="8" r:id="rId6"/>
+    <sheet name="2FATORES" sheetId="8" r:id="rId3"/>
+    <sheet name="Embalagem" sheetId="3" r:id="rId4"/>
+    <sheet name="Calculo de F" sheetId="4" r:id="rId5"/>
+    <sheet name="Scrap" sheetId="7" r:id="rId6"/>
+    <sheet name="Usinagem" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="83">
   <si>
     <t>c1</t>
   </si>
@@ -228,6 +229,57 @@
   </si>
   <si>
     <t>Como o p-value deu p &lt; 0,05, então a diferença entre os grupos é muito maior que dentro dos grupos, então há diferença de medias entre careiras (tem problema)</t>
+  </si>
+  <si>
+    <t>Ho: μ iguais</t>
+  </si>
+  <si>
+    <t>H1: pelo menos um μ diferente</t>
+  </si>
+  <si>
+    <t>Eu mantenho a hipotese nula, as médias seguem iguais</t>
+  </si>
+  <si>
+    <t>Pois p-value &gt; 0,005</t>
+  </si>
+  <si>
+    <t>Anova: fator duplo sem repetição</t>
+  </si>
+  <si>
+    <t>Linhas</t>
+  </si>
+  <si>
+    <t>Colunas</t>
+  </si>
+  <si>
+    <t>Erro</t>
+  </si>
+  <si>
+    <t>Não tem repetição do mesmo ensaio</t>
+  </si>
+  <si>
+    <t>As médias são diferentes e ambos os fatores tem influência</t>
+  </si>
+  <si>
+    <t>Profundidade (in)</t>
+  </si>
+  <si>
+    <t>Conjunto Parâmetros</t>
+  </si>
+  <si>
+    <t>Turno</t>
+  </si>
+  <si>
+    <t>primeiro</t>
+  </si>
+  <si>
+    <t>segundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Mesmo teste repetido . ' .</t>
   </si>
 </sst>
 </file>
@@ -624,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -742,29 +794,36 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1234,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B29E354-1DEF-460B-AA70-8138D27FCFC1}">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,7 +1305,7 @@
     <col min="13" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1269,7 +1328,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>48.52</v>
       </c>
@@ -1289,7 +1348,7 @@
         <v>48.34</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>48.46</v>
       </c>
@@ -1312,7 +1371,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>48.5</v>
       </c>
@@ -1331,23 +1390,26 @@
       <c r="F4" s="1">
         <v>48.31</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="L4" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="48" t="s">
+      <c r="N4" s="43" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>48.51</v>
       </c>
@@ -1366,23 +1428,26 @@
       <c r="F5" s="1">
         <v>48.33</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="46">
+      <c r="K5" s="41">
         <v>16</v>
       </c>
-      <c r="L5" s="46">
+      <c r="L5" s="41">
         <v>775.94000000000017</v>
       </c>
-      <c r="M5" s="46">
+      <c r="M5" s="41">
         <v>48.496250000000011</v>
       </c>
-      <c r="N5" s="46">
+      <c r="N5" s="41">
         <v>1.344999999999979E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>48.53</v>
       </c>
@@ -1401,23 +1466,23 @@
       <c r="F6" s="1">
         <v>48.21</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="46">
+      <c r="K6" s="41">
         <v>16</v>
       </c>
-      <c r="L6" s="46">
+      <c r="L6" s="41">
         <v>775.26999999999987</v>
       </c>
-      <c r="M6" s="46">
+      <c r="M6" s="41">
         <v>48.454374999999992</v>
       </c>
-      <c r="N6" s="46">
+      <c r="N6" s="41">
         <v>7.9958333333333932E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>48.52</v>
       </c>
@@ -1436,23 +1501,23 @@
       <c r="F7" s="1">
         <v>48.32</v>
       </c>
-      <c r="J7" s="46" t="s">
+      <c r="J7" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="46">
+      <c r="K7" s="41">
         <v>16</v>
       </c>
-      <c r="L7" s="46">
+      <c r="L7" s="41">
         <v>774.93999999999994</v>
       </c>
-      <c r="M7" s="46">
+      <c r="M7" s="41">
         <v>48.433749999999996</v>
       </c>
-      <c r="N7" s="46">
+      <c r="N7" s="41">
         <v>1.4783333333333382E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>48.51</v>
       </c>
@@ -1471,23 +1536,23 @@
       <c r="F8" s="1">
         <v>48.3</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="46">
+      <c r="K8" s="41">
         <v>16</v>
       </c>
-      <c r="L8" s="46">
+      <c r="L8" s="41">
         <v>774.04</v>
       </c>
-      <c r="M8" s="46">
+      <c r="M8" s="41">
         <v>48.377499999999998</v>
       </c>
-      <c r="N8" s="46">
+      <c r="N8" s="41">
         <v>2.1266666666665971E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>48.48</v>
       </c>
@@ -1506,23 +1571,23 @@
       <c r="F9" s="1">
         <v>48.32</v>
       </c>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="46">
+      <c r="K9" s="41">
         <v>16</v>
       </c>
-      <c r="L9" s="46">
+      <c r="L9" s="41">
         <v>773.4000000000002</v>
       </c>
-      <c r="M9" s="46">
+      <c r="M9" s="41">
         <v>48.337500000000013</v>
       </c>
-      <c r="N9" s="46">
+      <c r="N9" s="41">
         <v>1.2466666666666251E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>48.48</v>
       </c>
@@ -1541,23 +1606,23 @@
       <c r="F10" s="1">
         <v>48.3</v>
       </c>
-      <c r="J10" s="47" t="s">
+      <c r="J10" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="47">
+      <c r="K10" s="42">
         <v>16</v>
       </c>
-      <c r="L10" s="47">
+      <c r="L10" s="42">
         <v>772.87</v>
       </c>
-      <c r="M10" s="47">
+      <c r="M10" s="42">
         <v>48.304375</v>
       </c>
-      <c r="N10" s="47">
+      <c r="N10" s="42">
         <v>2.0795833333333061E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>48.42</v>
       </c>
@@ -1577,7 +1642,7 @@
         <v>48.35</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>48.46</v>
       </c>
@@ -1597,7 +1662,7 @@
         <v>48.37</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>48.51</v>
       </c>
@@ -1620,7 +1685,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>48.58</v>
       </c>
@@ -1639,29 +1704,29 @@
       <c r="F14" s="1">
         <v>48.25</v>
       </c>
-      <c r="J14" s="48" t="s">
+      <c r="J14" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="48" t="s">
+      <c r="K14" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="48" t="s">
+      <c r="L14" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="M14" s="48" t="s">
+      <c r="M14" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="N14" s="48" t="s">
+      <c r="N14" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="O14" s="48" t="s">
+      <c r="O14" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="P14" s="48" t="s">
+      <c r="P14" s="43" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>48.5</v>
       </c>
@@ -1680,29 +1745,29 @@
       <c r="F15" s="1">
         <v>48.31</v>
       </c>
-      <c r="J15" s="46" t="s">
+      <c r="J15" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15" s="41">
         <v>0.43062499999999859</v>
       </c>
-      <c r="L15" s="46">
+      <c r="L15" s="41">
         <v>5</v>
       </c>
-      <c r="M15" s="46">
+      <c r="M15" s="41">
         <v>8.6124999999999716E-2</v>
       </c>
-      <c r="N15" s="49">
+      <c r="N15" s="44">
         <v>56.936920392985776</v>
       </c>
-      <c r="O15" s="49">
+      <c r="O15" s="44">
         <v>2.1158342367449846E-26</v>
       </c>
-      <c r="P15" s="46">
+      <c r="P15" s="41">
         <v>2.3156892378361018</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>48.5</v>
       </c>
@@ -1721,21 +1786,21 @@
       <c r="F16" s="1">
         <v>48.21</v>
       </c>
-      <c r="J16" s="46" t="s">
+      <c r="J16" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="K16" s="46">
+      <c r="K16" s="41">
         <v>0.13613749999999777</v>
       </c>
-      <c r="L16" s="46">
+      <c r="L16" s="41">
         <v>90</v>
       </c>
-      <c r="M16" s="46">
+      <c r="M16" s="41">
         <v>1.5126388888888642E-3</v>
       </c>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1756,28 +1821,28 @@
       <c r="F17" s="1">
         <v>48.33</v>
       </c>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J18" s="47" t="s">
+      <c r="J18" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="47">
+      <c r="K18" s="42">
         <v>0.56676249999999639</v>
       </c>
-      <c r="L18" s="47">
+      <c r="L18" s="42">
         <v>95</v>
       </c>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N19" t="s">
@@ -1817,45 +1882,45 @@
       </c>
     </row>
     <row r="36" spans="14:20" x14ac:dyDescent="0.25">
-      <c r="N36" s="50" t="s">
+      <c r="N36" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="50"/>
-      <c r="T36" s="50"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="46"/>
     </row>
     <row r="37" spans="14:20" x14ac:dyDescent="0.25">
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="50"/>
-      <c r="T37" s="50"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="46"/>
+      <c r="R37" s="46"/>
+      <c r="S37" s="46"/>
+      <c r="T37" s="46"/>
     </row>
     <row r="38" spans="14:20" x14ac:dyDescent="0.25">
-      <c r="N38" s="50"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="50"/>
-      <c r="R38" s="50"/>
-      <c r="S38" s="50"/>
-      <c r="T38" s="50"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="46"/>
+      <c r="S38" s="46"/>
+      <c r="T38" s="46"/>
     </row>
     <row r="39" spans="14:20" x14ac:dyDescent="0.25">
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="50"/>
-      <c r="T39" s="50"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="46"/>
+      <c r="T39" s="46"/>
     </row>
     <row r="42" spans="14:20" x14ac:dyDescent="0.25">
-      <c r="P42" s="51"/>
+      <c r="P42" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1869,15 +1934,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B2F1E4-85BB-4D61-AA61-EA8A02713064}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1897,7 +1962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>48.45</v>
       </c>
@@ -1917,7 +1982,7 @@
         <v>48.38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>48.46</v>
       </c>
@@ -1936,8 +2001,11 @@
       <c r="F3" s="2">
         <v>48.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>48.46</v>
       </c>
@@ -1957,7 +2025,7 @@
         <v>48.41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>48.4</v>
       </c>
@@ -1976,8 +2044,11 @@
       <c r="F5" s="2">
         <v>48.41</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>48.4</v>
       </c>
@@ -1996,8 +2067,23 @@
       <c r="F6" s="2">
         <v>48.39</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J6" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>48.44</v>
       </c>
@@ -2016,8 +2102,23 @@
       <c r="F7" s="2">
         <v>48.41</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J7" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="41">
+        <v>16</v>
+      </c>
+      <c r="L7" s="41">
+        <v>774.57999999999993</v>
+      </c>
+      <c r="M7" s="41">
+        <v>48.411249999999995</v>
+      </c>
+      <c r="N7" s="41">
+        <v>9.0500000000003869E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>48.37</v>
       </c>
@@ -2036,8 +2137,23 @@
       <c r="F8" s="2">
         <v>48.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J8" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="41">
+        <v>16</v>
+      </c>
+      <c r="L8" s="41">
+        <v>774.44999999999993</v>
+      </c>
+      <c r="M8" s="41">
+        <v>48.403124999999996</v>
+      </c>
+      <c r="N8" s="41">
+        <v>7.0291666666669726E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>48.43</v>
       </c>
@@ -2056,8 +2172,23 @@
       <c r="F9" s="2">
         <v>48.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J9" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="41">
+        <v>16</v>
+      </c>
+      <c r="L9" s="41">
+        <v>774.11999999999989</v>
+      </c>
+      <c r="M9" s="41">
+        <v>48.382499999999993</v>
+      </c>
+      <c r="N9" s="41">
+        <v>7.1333333333327214E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>48.39</v>
       </c>
@@ -2076,8 +2207,23 @@
       <c r="F10" s="2">
         <v>48.42</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J10" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="41">
+        <v>16</v>
+      </c>
+      <c r="L10" s="41">
+        <v>774.34999999999991</v>
+      </c>
+      <c r="M10" s="41">
+        <v>48.396874999999994</v>
+      </c>
+      <c r="N10" s="41">
+        <v>1.0895833333332942E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>48.4</v>
       </c>
@@ -2096,8 +2242,23 @@
       <c r="F11" s="2">
         <v>48.37</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J11" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="41">
+        <v>16</v>
+      </c>
+      <c r="L11" s="41">
+        <v>774.31999999999994</v>
+      </c>
+      <c r="M11" s="41">
+        <v>48.394999999999996</v>
+      </c>
+      <c r="N11" s="41">
+        <v>1.2533333333333127E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>48.43</v>
       </c>
@@ -2116,8 +2277,23 @@
       <c r="F12" s="2">
         <v>48.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J12" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="42">
+        <v>16</v>
+      </c>
+      <c r="L12" s="42">
+        <v>774.54</v>
+      </c>
+      <c r="M12" s="42">
+        <v>48.408749999999998</v>
+      </c>
+      <c r="N12" s="42">
+        <v>9.3166666666671884E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>48.39</v>
       </c>
@@ -2137,7 +2313,7 @@
         <v>48.46</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>48.38</v>
       </c>
@@ -2157,7 +2333,7 @@
         <v>48.41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>48.4</v>
       </c>
@@ -2176,8 +2352,11 @@
       <c r="F15" s="2">
         <v>48.42</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>48.41</v>
       </c>
@@ -2196,8 +2375,29 @@
       <c r="F16" s="2">
         <v>48.49</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J16" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="N16" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>48.37</v>
       </c>
@@ -2216,13 +2416,689 @@
       <c r="F17" s="2">
         <v>48.37</v>
       </c>
+      <c r="J17" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="41">
+        <v>8.845833333333275E-3</v>
+      </c>
+      <c r="L17" s="41">
+        <v>5</v>
+      </c>
+      <c r="M17" s="41">
+        <v>1.769166666666655E-3</v>
+      </c>
+      <c r="N17" s="44">
+        <v>1.8969471332836805</v>
+      </c>
+      <c r="O17" s="44">
+        <v>0.1026388871955215</v>
+      </c>
+      <c r="P17" s="41">
+        <v>2.3156892378361018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J18" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="41">
+        <v>8.3937500000000012E-2</v>
+      </c>
+      <c r="L18" s="41">
+        <v>90</v>
+      </c>
+      <c r="M18" s="41">
+        <v>9.3263888888888899E-4</v>
+      </c>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J20" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="42">
+        <v>9.2783333333333287E-2</v>
+      </c>
+      <c r="L20" s="42">
+        <v>95</v>
+      </c>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EEA52C-3D29-497D-A4CB-D2931A039E65}">
+  <dimension ref="B2:S37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+    </row>
+    <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+    </row>
+    <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="28"/>
+      <c r="C4" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="M4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="30">
+        <v>1</v>
+      </c>
+      <c r="D5" s="30">
+        <v>2</v>
+      </c>
+      <c r="E5" s="30">
+        <v>3</v>
+      </c>
+      <c r="F5" s="30">
+        <v>4</v>
+      </c>
+      <c r="G5" s="30">
+        <v>5</v>
+      </c>
+      <c r="H5" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="33">
+        <v>87</v>
+      </c>
+      <c r="D6" s="33">
+        <v>79</v>
+      </c>
+      <c r="E6" s="33">
+        <v>82</v>
+      </c>
+      <c r="F6" s="33">
+        <v>89</v>
+      </c>
+      <c r="G6" s="33">
+        <v>83</v>
+      </c>
+      <c r="H6" s="34">
+        <v>78</v>
+      </c>
+      <c r="M6" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="33">
+        <v>93</v>
+      </c>
+      <c r="D7" s="33">
+        <v>84</v>
+      </c>
+      <c r="E7" s="33">
+        <v>89</v>
+      </c>
+      <c r="F7" s="33">
+        <v>96</v>
+      </c>
+      <c r="G7" s="33">
+        <v>86</v>
+      </c>
+      <c r="H7" s="34">
+        <v>87</v>
+      </c>
+      <c r="M7" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="41">
+        <v>6</v>
+      </c>
+      <c r="O7" s="41">
+        <v>498</v>
+      </c>
+      <c r="P7" s="41">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="41">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="33">
+        <v>88</v>
+      </c>
+      <c r="D8" s="33">
+        <v>80</v>
+      </c>
+      <c r="E8" s="33">
+        <v>84</v>
+      </c>
+      <c r="F8" s="33">
+        <v>91</v>
+      </c>
+      <c r="G8" s="33">
+        <v>83</v>
+      </c>
+      <c r="H8" s="34">
+        <v>87</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="41">
+        <v>6</v>
+      </c>
+      <c r="O8" s="41">
+        <v>535</v>
+      </c>
+      <c r="P8" s="41">
+        <v>89.166666666666671</v>
+      </c>
+      <c r="Q8" s="41">
+        <v>20.566666666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="36">
+        <v>88</v>
+      </c>
+      <c r="D9" s="36">
+        <v>77</v>
+      </c>
+      <c r="E9" s="36">
+        <v>83</v>
+      </c>
+      <c r="F9" s="36">
+        <v>90</v>
+      </c>
+      <c r="G9" s="36">
+        <v>82</v>
+      </c>
+      <c r="H9" s="37">
+        <v>79</v>
+      </c>
+      <c r="M9" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="41">
+        <v>6</v>
+      </c>
+      <c r="O9" s="41">
+        <v>513</v>
+      </c>
+      <c r="P9" s="41">
+        <v>85.5</v>
+      </c>
+      <c r="Q9" s="41">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="39">
+        <v>89</v>
+      </c>
+      <c r="D10" s="39">
+        <v>80</v>
+      </c>
+      <c r="E10" s="39">
+        <v>84.5</v>
+      </c>
+      <c r="F10" s="39">
+        <v>91.5</v>
+      </c>
+      <c r="G10" s="39">
+        <v>83.5</v>
+      </c>
+      <c r="H10" s="40">
+        <v>81.5</v>
+      </c>
+      <c r="M10" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="41">
+        <v>6</v>
+      </c>
+      <c r="O10" s="41">
+        <v>499</v>
+      </c>
+      <c r="P10" s="41">
+        <v>83.166666666666671</v>
+      </c>
+      <c r="Q10" s="41">
+        <v>25.366666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M12" s="41">
+        <v>1</v>
+      </c>
+      <c r="N12" s="41">
+        <v>4</v>
+      </c>
+      <c r="O12" s="41">
+        <v>356</v>
+      </c>
+      <c r="P12" s="41">
+        <v>89</v>
+      </c>
+      <c r="Q12" s="41">
+        <v>7.333333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="M13" s="41">
+        <v>2</v>
+      </c>
+      <c r="N13" s="41">
+        <v>4</v>
+      </c>
+      <c r="O13" s="41">
+        <v>320</v>
+      </c>
+      <c r="P13" s="41">
+        <v>80</v>
+      </c>
+      <c r="Q13" s="41">
+        <v>8.6666666666666661</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="M14" s="41">
+        <v>3</v>
+      </c>
+      <c r="N14" s="41">
+        <v>4</v>
+      </c>
+      <c r="O14" s="41">
+        <v>338</v>
+      </c>
+      <c r="P14" s="41">
+        <v>84.5</v>
+      </c>
+      <c r="Q14" s="41">
+        <v>9.6666666666666661</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="I15" t="s">
+        <v>74</v>
+      </c>
+      <c r="M15" s="41">
+        <v>4</v>
+      </c>
+      <c r="N15" s="41">
+        <v>4</v>
+      </c>
+      <c r="O15" s="41">
+        <v>366</v>
+      </c>
+      <c r="P15" s="41">
+        <v>91.5</v>
+      </c>
+      <c r="Q15" s="41">
+        <v>9.6666666666666661</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="M16" s="41">
+        <v>5</v>
+      </c>
+      <c r="N16" s="41">
+        <v>4</v>
+      </c>
+      <c r="O16" s="41">
+        <v>334</v>
+      </c>
+      <c r="P16" s="41">
+        <v>83.5</v>
+      </c>
+      <c r="Q16" s="41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="M17" s="42">
+        <v>6</v>
+      </c>
+      <c r="N17" s="42">
+        <v>4</v>
+      </c>
+      <c r="O17" s="42">
+        <v>331</v>
+      </c>
+      <c r="P17" s="42">
+        <v>82.75</v>
+      </c>
+      <c r="Q17" s="42">
+        <v>24.25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+    </row>
+    <row r="20" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="M20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="M21" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q21" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="S21" s="43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="M22" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="N22" s="41">
+        <v>148.79166666666686</v>
+      </c>
+      <c r="O22" s="41">
+        <v>3</v>
+      </c>
+      <c r="P22" s="41">
+        <v>49.597222222222285</v>
+      </c>
+      <c r="Q22" s="41">
+        <v>19.096256684492097</v>
+      </c>
+      <c r="R22" s="44">
+        <v>2.2104688076906108E-5</v>
+      </c>
+      <c r="S22" s="41">
+        <v>3.2873821046365093</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="M23" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="N23" s="41">
+        <v>362.20833333333348</v>
+      </c>
+      <c r="O23" s="41">
+        <v>5</v>
+      </c>
+      <c r="P23" s="41">
+        <v>72.441666666666691</v>
+      </c>
+      <c r="Q23" s="41">
+        <v>27.891978609625816</v>
+      </c>
+      <c r="R23" s="44">
+        <v>4.3167925803118153E-7</v>
+      </c>
+      <c r="S23" s="41">
+        <v>2.9012945362361564</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="M24" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="N24" s="41">
+        <v>38.958333333333144</v>
+      </c>
+      <c r="O24" s="41">
+        <v>15</v>
+      </c>
+      <c r="P24" s="41">
+        <v>2.5972222222222094</v>
+      </c>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+    </row>
+    <row r="26" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="M26" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="42">
+        <v>549.95833333333348</v>
+      </c>
+      <c r="O26" s="42">
+        <v>23</v>
+      </c>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="M28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="C4:H4"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C86A15B2-DCBE-47D1-A55A-139EA9564468}">
   <dimension ref="A2:N23"/>
   <sheetViews>
@@ -2236,18 +3112,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -2358,7 +3234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281EF116-E680-4098-B22E-B51941F115CB}">
   <dimension ref="A2:J8"/>
   <sheetViews>
@@ -2373,18 +3249,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
@@ -2451,7 +3327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400F1494-806F-4835-A390-8516BA8FFD95}">
   <dimension ref="A2:K9"/>
   <sheetViews>
@@ -2465,19 +3341,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -2553,191 +3429,171 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EEA52C-3D29-497D-A4CB-D2931A039E65}">
-  <dimension ref="B2:H10"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D59ECD-1550-45D4-8793-3FDB18431E7A}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="EJS1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-    </row>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
-      <c r="C4" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-    </row>
-    <row r="5" spans="2:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="30">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="54">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="B2" s="54">
         <v>1</v>
       </c>
-      <c r="D5" s="30">
+      <c r="C2" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="54">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="B3" s="54">
+        <v>1</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="54">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="B4" s="54">
+        <v>1</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="54">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="B5" s="54">
+        <v>1</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="54">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="B6" s="54">
         <v>2</v>
       </c>
-      <c r="E5" s="30">
+      <c r="C6" s="54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="54">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="B7" s="54">
+        <v>2</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="54">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="B8" s="54">
+        <v>2</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="54">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="B9" s="54">
+        <v>2</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="54">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="B10" s="54">
         <v>3</v>
       </c>
-      <c r="F5" s="30">
-        <v>4</v>
-      </c>
-      <c r="G5" s="30">
-        <v>5</v>
-      </c>
-      <c r="H5" s="31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="33">
-        <v>87</v>
-      </c>
-      <c r="D6" s="33">
+      <c r="C10" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="33">
-        <v>82</v>
-      </c>
-      <c r="F6" s="33">
-        <v>89</v>
-      </c>
-      <c r="G6" s="33">
-        <v>83</v>
-      </c>
-      <c r="H6" s="34">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="33">
-        <v>93</v>
-      </c>
-      <c r="D7" s="33">
-        <v>84</v>
-      </c>
-      <c r="E7" s="33">
-        <v>89</v>
-      </c>
-      <c r="F7" s="33">
-        <v>96</v>
-      </c>
-      <c r="G7" s="33">
-        <v>86</v>
-      </c>
-      <c r="H7" s="34">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="33">
-        <v>88</v>
-      </c>
-      <c r="D8" s="33">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="54">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="B11" s="54">
+        <v>3</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="54">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="B12" s="54">
+        <v>3</v>
+      </c>
+      <c r="C12" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="33">
-        <v>84</v>
-      </c>
-      <c r="F8" s="33">
-        <v>91</v>
-      </c>
-      <c r="G8" s="33">
-        <v>83</v>
-      </c>
-      <c r="H8" s="34">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="36">
-        <v>88</v>
-      </c>
-      <c r="D9" s="36">
-        <v>77</v>
-      </c>
-      <c r="E9" s="36">
-        <v>83</v>
-      </c>
-      <c r="F9" s="36">
-        <v>90</v>
-      </c>
-      <c r="G9" s="36">
-        <v>82</v>
-      </c>
-      <c r="H9" s="37">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="39">
-        <v>89</v>
-      </c>
-      <c r="D10" s="39">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="54">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="B13" s="54">
+        <v>3</v>
+      </c>
+      <c r="C13" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="39">
-        <v>84.5</v>
-      </c>
-      <c r="F10" s="39">
-        <v>91.5</v>
-      </c>
-      <c r="G10" s="39">
-        <v>83.5</v>
-      </c>
-      <c r="H10" s="40">
-        <v>81.5</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="C4:H4"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>